--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -409,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.04624734888569507</v>
+        <v>-0.0799107189589654</v>
       </c>
       <c r="C2">
-        <v>0.3025891278764477</v>
+        <v>0.2950473074773463</v>
       </c>
       <c r="D2">
-        <v>324.97530943227</v>
+        <v>314.7667064091086</v>
       </c>
       <c r="E2">
-        <v>-0.1528387659208253</v>
+        <v>-0.270840359948382</v>
       </c>
       <c r="F2">
-        <v>0.8786202785348929</v>
+        <v>0.7866913322804363</v>
       </c>
       <c r="G2">
-        <v>-0.6435056591559591</v>
+        <v>-0.6863037580082422</v>
       </c>
       <c r="H2">
-        <v>0.5389896604265657</v>
+        <v>0.5340209186963749</v>
       </c>
     </row>
     <row r="3">
@@ -437,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.163041791510256</v>
+        <v>-0.1274397351786616</v>
       </c>
       <c r="C3">
-        <v>0.2268977509409417</v>
+        <v>0.2207467814659963</v>
       </c>
       <c r="D3">
-        <v>326.2098425589764</v>
+        <v>314.1613134987312</v>
       </c>
       <c r="E3">
-        <v>-0.7185694474014135</v>
+        <v>-0.5773118608222712</v>
       </c>
       <c r="F3">
-        <v>0.4729206058457713</v>
+        <v>0.5641422864417216</v>
       </c>
       <c r="G3">
-        <v>-0.5764756650847573</v>
+        <v>-0.5414938699477077</v>
       </c>
       <c r="H3">
-        <v>0.307112941379696</v>
+        <v>0.2705874538313923</v>
       </c>
     </row>
     <row r="4">
@@ -465,25 +465,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.4087575144112957</v>
+        <v>-0.3799986035219615</v>
       </c>
       <c r="C4">
-        <v>0.2185152993631957</v>
+        <v>0.2108093534074392</v>
       </c>
       <c r="D4">
-        <v>323.2556709985201</v>
+        <v>311.4330250730235</v>
       </c>
       <c r="E4">
-        <v>-1.870612792799909</v>
+        <v>-1.802569939994663</v>
       </c>
       <c r="F4">
-        <v>0.06230218162331622</v>
+        <v>0.07242246184307898</v>
       </c>
       <c r="G4">
-        <v>-0.8424108229365526</v>
+        <v>-0.8292131235654691</v>
       </c>
       <c r="H4">
-        <v>0.02079639706326901</v>
+        <v>0.03397208629923445</v>
       </c>
     </row>
     <row r="5">
@@ -493,25 +493,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.4551732516712887</v>
+        <v>-0.3531660559294014</v>
       </c>
       <c r="C5">
-        <v>0.2731918365206308</v>
+        <v>0.2641668168800322</v>
       </c>
       <c r="D5">
-        <v>325.3971742004359</v>
+        <v>313.9972614284605</v>
       </c>
       <c r="E5">
-        <v>-1.666130501805515</v>
+        <v>-1.336905445205053</v>
       </c>
       <c r="F5">
-        <v>0.09664971838655977</v>
+        <v>0.182221279481996</v>
       </c>
       <c r="G5">
-        <v>-1.000752455705015</v>
+        <v>-0.8403736962927437</v>
       </c>
       <c r="H5">
-        <v>0.1214615074804345</v>
+        <v>0.2014825804931661</v>
       </c>
     </row>
     <row r="6">
@@ -521,25 +521,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.379287792017636</v>
+        <v>-0.3251056114327599</v>
       </c>
       <c r="C6">
-        <v>0.1944595677958164</v>
+        <v>0.1878680797083489</v>
       </c>
       <c r="D6">
-        <v>322.1583630961646</v>
+        <v>309.6899441999259</v>
       </c>
       <c r="E6">
-        <v>-1.950471228116121</v>
+        <v>-1.730499465036647</v>
       </c>
       <c r="F6">
-        <v>0.05198687176642587</v>
+        <v>0.08453721601732975</v>
       </c>
       <c r="G6">
-        <v>-0.7209999085182359</v>
+        <v>-0.7100387544307412</v>
       </c>
       <c r="H6">
-        <v>0.02555655427006725</v>
+        <v>0.03383481696769968</v>
       </c>
     </row>
     <row r="7">
@@ -549,25 +549,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.1913779703773135</v>
+        <v>-0.1699855911377655</v>
       </c>
       <c r="C7">
-        <v>0.2124228966870141</v>
+        <v>0.2056289464940612</v>
       </c>
       <c r="D7">
-        <v>325.7504436657212</v>
+        <v>314.4433251230593</v>
       </c>
       <c r="E7">
-        <v>-0.9009291058641933</v>
+        <v>-0.8266617810186315</v>
       </c>
       <c r="F7">
-        <v>0.3682916003320305</v>
+        <v>0.4090556261130133</v>
       </c>
       <c r="G7">
-        <v>-0.6500167340833437</v>
+        <v>-0.5362340731085516</v>
       </c>
       <c r="H7">
-        <v>0.2250558406161697</v>
+        <v>0.2168913275400292</v>
       </c>
     </row>
     <row r="8">
@@ -577,25 +577,25 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.3991955186076995</v>
+        <v>-0.2926641986793991</v>
       </c>
       <c r="C8">
-        <v>0.2033557711020577</v>
+        <v>0.1978352087123081</v>
       </c>
       <c r="D8">
-        <v>323.3754919657801</v>
+        <v>311.2613680406293</v>
       </c>
       <c r="E8">
-        <v>-1.963040028046985</v>
+        <v>-1.479333231856576</v>
       </c>
       <c r="F8">
-        <v>0.0504983525577555</v>
+        <v>0.1400626067014035</v>
       </c>
       <c r="G8">
-        <v>-0.8073115059810131</v>
+        <v>-0.7163386213151591</v>
       </c>
       <c r="H8">
-        <v>0.03215745733101469</v>
+        <v>0.07768607683605171</v>
       </c>
     </row>
     <row r="9">
@@ -605,25 +605,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.106707217731801</v>
+        <v>-0.09140525571134607</v>
       </c>
       <c r="C9">
-        <v>0.218882735919969</v>
+        <v>0.2116477430200132</v>
       </c>
       <c r="D9">
-        <v>322.2961311781136</v>
+        <v>310.6729653610504</v>
       </c>
       <c r="E9">
-        <v>-0.4875086072152207</v>
+        <v>-0.4318744646509313</v>
       </c>
       <c r="F9">
-        <v>0.6262293774074901</v>
+        <v>0.6661322270008083</v>
       </c>
       <c r="G9">
-        <v>-0.5310131290866313</v>
+        <v>-0.5273959452729431</v>
       </c>
       <c r="H9">
-        <v>0.3496470576017102</v>
+        <v>0.308228289399283</v>
       </c>
     </row>
     <row r="10">
@@ -633,25 +633,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.001820753462979694</v>
+        <v>0.03080377082110764</v>
       </c>
       <c r="C10">
-        <v>0.4717882347700212</v>
+        <v>0.4744489806979797</v>
       </c>
       <c r="D10">
-        <v>325.28812664272</v>
+        <v>315.7338649163115</v>
       </c>
       <c r="E10">
-        <v>0.003859260000129596</v>
+        <v>0.06492535988967889</v>
       </c>
       <c r="F10">
-        <v>0.9969231293292752</v>
+        <v>0.9482745165970187</v>
       </c>
       <c r="G10">
-        <v>-0.916471002824341</v>
+        <v>-0.9839890924976548</v>
       </c>
       <c r="H10">
-        <v>1.035220974920222</v>
+        <v>0.9623956643511929</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.3837625051846303</v>
+        <v>-0.3778062483763462</v>
       </c>
       <c r="C11">
-        <v>0.20494155636704</v>
+        <v>0.1998063181692086</v>
       </c>
       <c r="D11">
-        <v>323.0517699447095</v>
+        <v>311.1593509484661</v>
       </c>
       <c r="E11">
-        <v>-1.87254606624208</v>
+        <v>-1.890862370310012</v>
       </c>
       <c r="F11">
-        <v>0.06203420272374683</v>
+        <v>0.05957155127437547</v>
       </c>
       <c r="G11">
-        <v>-0.7740418131271051</v>
+        <v>-0.7757051183242542</v>
       </c>
       <c r="H11">
-        <v>-0.02486076955811861</v>
+        <v>0.02031413776837592</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,25 +744,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.227092185061647</v>
+        <v>1.04477437421427</v>
       </c>
       <c r="C2">
-        <v>0.3644660268501637</v>
+        <v>0.3708327896966926</v>
       </c>
       <c r="D2">
-        <v>3.103133944897154</v>
+        <v>3.495027825631593</v>
       </c>
       <c r="E2">
-        <v>3.36682185625526</v>
+        <v>2.817373229235744</v>
       </c>
       <c r="F2">
-        <v>0.04136640167794577</v>
+        <v>0.0560359503364208</v>
       </c>
       <c r="G2">
-        <v>0.5546298907319139</v>
+        <v>0.3181988203140237</v>
       </c>
       <c r="H2">
-        <v>1.95390398222848</v>
+        <v>1.776253708184791</v>
       </c>
     </row>
     <row r="3">
@@ -772,25 +772,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4347388930631182</v>
+        <v>0.3308220178452134</v>
       </c>
       <c r="C3">
-        <v>0.3586930527854983</v>
+        <v>0.3497422968457047</v>
       </c>
       <c r="D3">
-        <v>317.1657618099448</v>
+        <v>307.5963640255861</v>
       </c>
       <c r="E3">
-        <v>1.212008121392571</v>
+        <v>0.9459022280944236</v>
       </c>
       <c r="F3">
-        <v>0.2264113911149051</v>
+        <v>0.3449409025307362</v>
       </c>
       <c r="G3">
-        <v>-0.1898781268161559</v>
+        <v>-0.440185267948671</v>
       </c>
       <c r="H3">
-        <v>1.221800864585998</v>
+        <v>1.095795258557251</v>
       </c>
     </row>
     <row r="4">
@@ -800,25 +800,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1405262982160328</v>
+        <v>0.1404451158350592</v>
       </c>
       <c r="C4">
-        <v>0.2783110727984212</v>
+        <v>0.2699331384552864</v>
       </c>
       <c r="D4">
-        <v>318.8196220430892</v>
+        <v>307.5232490325614</v>
       </c>
       <c r="E4">
-        <v>0.5049252866694782</v>
+        <v>0.5202959393528612</v>
       </c>
       <c r="F4">
-        <v>0.6139601434966777</v>
+        <v>0.6032316875134789</v>
       </c>
       <c r="G4">
-        <v>-0.3813183635515009</v>
+        <v>-0.3549437009413518</v>
       </c>
       <c r="H4">
-        <v>0.6655996943727963</v>
+        <v>0.6832286569034345</v>
       </c>
     </row>
     <row r="5">
@@ -828,25 +828,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.2521812910839593</v>
+        <v>-0.2777934965231654</v>
       </c>
       <c r="C5">
-        <v>0.290088004697696</v>
+        <v>0.2808999647253254</v>
       </c>
       <c r="D5">
-        <v>316.9606042168999</v>
+        <v>305.8046948095033</v>
       </c>
       <c r="E5">
-        <v>-0.8693268490945026</v>
+        <v>-0.9889410160474827</v>
       </c>
       <c r="F5">
-        <v>0.3853261939909005</v>
+        <v>0.3234738268564517</v>
       </c>
       <c r="G5">
-        <v>-0.7912322775937415</v>
+        <v>-0.8384331211509193</v>
       </c>
       <c r="H5">
-        <v>0.3183923286312775</v>
+        <v>0.2958272126885533</v>
       </c>
     </row>
     <row r="6">
@@ -856,25 +856,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.4430422333386361</v>
+        <v>-0.3129444011968199</v>
       </c>
       <c r="C6">
-        <v>0.3216688208750392</v>
+        <v>0.3117882698391852</v>
       </c>
       <c r="D6">
-        <v>315.5064937246619</v>
+        <v>303.8303231648985</v>
       </c>
       <c r="E6">
-        <v>-1.377324143923627</v>
+        <v>-1.003708065599232</v>
       </c>
       <c r="F6">
-        <v>0.1693883593259757</v>
+        <v>0.3163180369992388</v>
       </c>
       <c r="G6">
-        <v>-1.112922138020384</v>
+        <v>-0.991156306002185</v>
       </c>
       <c r="H6">
-        <v>0.1520595423530694</v>
+        <v>0.3580552202794234</v>
       </c>
     </row>
     <row r="7">
@@ -884,25 +884,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.2070705849474869</v>
+        <v>-0.198887448598795</v>
       </c>
       <c r="C7">
-        <v>0.3347077125052138</v>
+        <v>0.3246737416003399</v>
       </c>
       <c r="D7">
-        <v>312.2593062059307</v>
+        <v>300.1799862150773</v>
       </c>
       <c r="E7">
-        <v>-0.6186609307494261</v>
+        <v>-0.6125763285274155</v>
       </c>
       <c r="F7">
-        <v>0.5365907821903899</v>
+        <v>0.5406202867051857</v>
       </c>
       <c r="G7">
-        <v>-0.9204088394511019</v>
+        <v>-0.8544833293570513</v>
       </c>
       <c r="H7">
-        <v>0.4464806597937342</v>
+        <v>0.4661719936185974</v>
       </c>
     </row>
     <row r="8">
@@ -912,25 +912,25 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1633673411082244</v>
+        <v>0.1285594070604574</v>
       </c>
       <c r="C8">
-        <v>0.2792651434079138</v>
+        <v>0.2712402840080937</v>
       </c>
       <c r="D8">
-        <v>317.465220824464</v>
+        <v>306.2506741003893</v>
       </c>
       <c r="E8">
-        <v>0.5849900890409329</v>
+        <v>0.4739687083376644</v>
       </c>
       <c r="F8">
-        <v>0.5589699210239807</v>
+        <v>0.6358599495528671</v>
       </c>
       <c r="G8">
-        <v>-0.348289666455947</v>
+        <v>-0.4189711221319284</v>
       </c>
       <c r="H8">
-        <v>0.6777376564307618</v>
+        <v>0.6856963362563865</v>
       </c>
     </row>
     <row r="9">
@@ -940,25 +940,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.2256636716302556</v>
+        <v>-0.05585202369226342</v>
       </c>
       <c r="C9">
-        <v>0.3285103351134146</v>
+        <v>0.3211977072310528</v>
       </c>
       <c r="D9">
-        <v>313.9853071814379</v>
+        <v>302.633588188861</v>
       </c>
       <c r="E9">
-        <v>-0.6869302043491193</v>
+        <v>-0.1738867446276209</v>
       </c>
       <c r="F9">
-        <v>0.4926337364048192</v>
+        <v>0.8620707265038388</v>
       </c>
       <c r="G9">
-        <v>-0.8532609027676451</v>
+        <v>-0.7026777078771382</v>
       </c>
       <c r="H9">
-        <v>0.3876642630347603</v>
+        <v>0.564243108180962</v>
       </c>
     </row>
     <row r="10">
@@ -968,25 +968,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.374441012101756</v>
+        <v>0.3301788999818811</v>
       </c>
       <c r="C10">
-        <v>0.2908649643467076</v>
+        <v>0.2824984438625727</v>
       </c>
       <c r="D10">
-        <v>316.3395012103375</v>
+        <v>306.3976970345419</v>
       </c>
       <c r="E10">
-        <v>1.287336248773595</v>
+        <v>1.168781305367132</v>
       </c>
       <c r="F10">
-        <v>0.1989181831363224</v>
+        <v>0.2434002793918812</v>
       </c>
       <c r="G10">
-        <v>-0.2374850964866318</v>
+        <v>-0.2250116263620745</v>
       </c>
       <c r="H10">
-        <v>0.9633538290654386</v>
+        <v>0.8166778847381477</v>
       </c>
     </row>
     <row r="11">
@@ -996,25 +996,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.2493279172699421</v>
+        <v>0.2454442922230812</v>
       </c>
       <c r="C11">
-        <v>0.4912013611920599</v>
+        <v>0.4939146605801504</v>
       </c>
       <c r="D11">
-        <v>316.0049479499527</v>
+        <v>306.1816115689768</v>
       </c>
       <c r="E11">
-        <v>0.50758800151707</v>
+        <v>0.496936640703848</v>
       </c>
       <c r="F11">
-        <v>0.6120963809261845</v>
+        <v>0.619590352720695</v>
       </c>
       <c r="G11">
-        <v>-0.6086163596890379</v>
+        <v>-0.5986106213204089</v>
       </c>
       <c r="H11">
-        <v>1.246609143258849</v>
+        <v>1.287264239511206</v>
       </c>
     </row>
     <row r="12">
@@ -1024,25 +1024,25 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.3507825364450867</v>
+        <v>-0.3979197801928326</v>
       </c>
       <c r="C12">
-        <v>0.310885626514434</v>
+        <v>0.3036131901000914</v>
       </c>
       <c r="D12">
-        <v>315.8500909388416</v>
+        <v>304.1138942274961</v>
       </c>
       <c r="E12">
-        <v>-1.12833307984665</v>
+        <v>-1.310614272264164</v>
       </c>
       <c r="F12">
-        <v>0.2600356010410583</v>
+        <v>0.1909770149727085</v>
       </c>
       <c r="G12">
-        <v>-0.8845876557757313</v>
+        <v>-1.005186457108123</v>
       </c>
       <c r="H12">
-        <v>0.2362676436063201</v>
+        <v>0.1690738811731455</v>
       </c>
     </row>
     <row r="13">
@@ -1052,137 +1052,249 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2094185336705545</v>
+        <v>0.2416677441071239</v>
       </c>
       <c r="C13">
-        <v>0.1098501038687536</v>
+        <v>0.1117533709155031</v>
       </c>
       <c r="D13">
-        <v>314.7603545794753</v>
+        <v>305.789606964037</v>
       </c>
       <c r="E13">
-        <v>1.906402691441813</v>
+        <v>2.16250965968489</v>
       </c>
       <c r="F13">
-        <v>0.05750848638794766</v>
+        <v>0.03135395887989921</v>
       </c>
       <c r="G13">
-        <v>-0.001007640382242058</v>
+        <v>0.0396335868856666</v>
       </c>
       <c r="H13">
-        <v>0.4225504483380186</v>
+        <v>0.4612714824673605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.06031179229298221</v>
+        <v>0.008172167792568161</v>
       </c>
       <c r="C14">
-        <v>0.1273680523605797</v>
+        <v>0.1082511610867136</v>
       </c>
       <c r="D14">
-        <v>315.292254923827</v>
+        <v>301.3341404611353</v>
       </c>
       <c r="E14">
-        <v>0.4735237068887507</v>
+        <v>0.07549265717364381</v>
       </c>
       <c r="F14">
-        <v>0.636167287608451</v>
+        <v>0.9398728335503802</v>
       </c>
       <c r="G14">
-        <v>-0.2093492471801059</v>
+        <v>-0.207989197359477</v>
       </c>
       <c r="H14">
-        <v>0.3261752747452238</v>
+        <v>0.2302288009828728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.05506265438733123</v>
+        <v>-0.1512414194442059</v>
       </c>
       <c r="C15">
-        <v>0.1021900685892434</v>
+        <v>0.1871981884947746</v>
       </c>
       <c r="D15">
-        <v>310.9306057383959</v>
+        <v>306.1385349013938</v>
       </c>
       <c r="E15">
-        <v>0.5388258873634533</v>
+        <v>-0.8079213835363991</v>
       </c>
       <c r="F15">
-        <v>0.5903925639674468</v>
+        <v>0.4197631670118366</v>
       </c>
       <c r="G15">
-        <v>-0.1447758635563097</v>
+        <v>-0.5041156234951172</v>
       </c>
       <c r="H15">
-        <v>0.2696239975786843</v>
+        <v>0.2606790962874317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="B16">
-        <v>-0.01185940507997561</v>
+        <v>-0.2477519867282715</v>
       </c>
       <c r="C16">
-        <v>0.1198025420092091</v>
+        <v>0.1632498197559699</v>
       </c>
       <c r="D16">
-        <v>321.7840491498689</v>
+        <v>309.2100261580044</v>
       </c>
       <c r="E16">
-        <v>-0.09899126413414491</v>
+        <v>-1.517624871492156</v>
       </c>
       <c r="F16">
-        <v>0.9212068443233224</v>
+        <v>0.1301307014290082</v>
       </c>
       <c r="G16">
-        <v>-0.2536311966392705</v>
+        <v>-0.5742883369228899</v>
       </c>
       <c r="H16">
-        <v>0.2254454619936648</v>
+        <v>0.09953404182004762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>rplthemes</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.03706785273291435</v>
+      </c>
+      <c r="C17">
+        <v>0.1203799771215855</v>
+      </c>
+      <c r="D17">
+        <v>308.9179389193707</v>
+      </c>
+      <c r="E17">
+        <v>0.3079237396388213</v>
+      </c>
+      <c r="F17">
+        <v>0.7583478729711702</v>
+      </c>
+      <c r="G17">
+        <v>-0.1989967464636757</v>
+      </c>
+      <c r="H17">
+        <v>0.2766333969363606</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>percentblackorafricanamerican</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>-0.07114804217175208</v>
+      </c>
+      <c r="C18">
+        <v>0.1307709637601449</v>
+      </c>
+      <c r="D18">
+        <v>291.1522965666607</v>
+      </c>
+      <c r="E18">
+        <v>-0.5440660535487762</v>
+      </c>
+      <c r="F18">
+        <v>0.5868124097171972</v>
+      </c>
+      <c r="G18">
+        <v>-0.3458548361633152</v>
+      </c>
+      <c r="H18">
+        <v>0.1820963826241052</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>schoollevelHS</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0.3125045264688433</v>
+      </c>
+      <c r="C19">
+        <v>0.2471640671497359</v>
+      </c>
+      <c r="D19">
+        <v>305.6387565143285</v>
+      </c>
+      <c r="E19">
+        <v>1.26436067375248</v>
+      </c>
+      <c r="F19">
+        <v>0.2070639221570228</v>
+      </c>
+      <c r="G19">
+        <v>-0.1486136884593228</v>
+      </c>
+      <c r="H19">
+        <v>0.8025048657960125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>schoollevelMS</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.2716746986101293</v>
+      </c>
+      <c r="C20">
+        <v>0.2345168999552951</v>
+      </c>
+      <c r="D20">
+        <v>299.8233403674687</v>
+      </c>
+      <c r="E20">
+        <v>1.158444012614517</v>
+      </c>
+      <c r="F20">
+        <v>0.2476047717452251</v>
+      </c>
+      <c r="G20">
+        <v>-0.1941153415818908</v>
+      </c>
+      <c r="H20">
+        <v>0.720510054627521</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>cntycaseschange</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.03083682573743076</v>
-      </c>
-      <c r="C17">
-        <v>0.1705859808853725</v>
-      </c>
-      <c r="D17">
-        <v>50.41651911793544</v>
-      </c>
-      <c r="E17">
-        <v>-0.1807699881161511</v>
-      </c>
-      <c r="F17">
-        <v>0.8572728457844461</v>
-      </c>
-      <c r="G17">
-        <v>-0.3307711583385647</v>
-      </c>
-      <c r="H17">
-        <v>0.3097369082274095</v>
+      <c r="B21">
+        <v>-0.08261239724010899</v>
+      </c>
+      <c r="C21">
+        <v>0.1668889456261903</v>
+      </c>
+      <c r="D21">
+        <v>50.2024293734299</v>
+      </c>
+      <c r="E21">
+        <v>-0.4950141959980387</v>
+      </c>
+      <c r="F21">
+        <v>0.6227497846074548</v>
+      </c>
+      <c r="G21">
+        <v>-0.4475046504505347</v>
+      </c>
+      <c r="H21">
+        <v>0.2952978866286234</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1247,25 +1359,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.257813503164575</v>
+        <v>1.07216844983058</v>
       </c>
       <c r="C2">
-        <v>0.3552087702912947</v>
+        <v>0.3549718854161132</v>
       </c>
       <c r="D2">
-        <v>3.101736188368814</v>
+        <v>3.480258383336976</v>
       </c>
       <c r="E2">
-        <v>3.54105418662125</v>
+        <v>3.020432022591699</v>
       </c>
       <c r="F2">
-        <v>0.03634156719263049</v>
+        <v>0.04685948347091481</v>
       </c>
       <c r="G2">
-        <v>0.6342773138913476</v>
+        <v>0.3345911405269578</v>
       </c>
       <c r="H2">
-        <v>1.927745213743475</v>
+        <v>1.763258251364656</v>
       </c>
     </row>
     <row r="3">
@@ -1275,277 +1387,333 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.1650317240907055</v>
+        <v>-0.2034652089703249</v>
       </c>
       <c r="C3">
-        <v>0.2826603948608351</v>
+        <v>0.2655103256279184</v>
       </c>
       <c r="D3">
-        <v>322.365985752157</v>
+        <v>311.0088768201954</v>
       </c>
       <c r="E3">
-        <v>-0.5838516010421523</v>
+        <v>-0.7663175000412511</v>
       </c>
       <c r="F3">
-        <v>0.5597284546217324</v>
+        <v>0.4440686499153138</v>
       </c>
       <c r="G3">
-        <v>-0.7490751145757003</v>
+        <v>-0.7282650723831602</v>
       </c>
       <c r="H3">
-        <v>0.4421233008142267</v>
+        <v>0.3139316282962111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>screeningtestingforstudents</t>
+          <t>stayhome</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.2557981790344942</v>
+        <v>-0.0917278474913371</v>
       </c>
       <c r="C4">
-        <v>0.2985819276413689</v>
+        <v>0.2625777326326115</v>
       </c>
       <c r="D4">
-        <v>321.1341092957754</v>
+        <v>314.5222676229762</v>
       </c>
       <c r="E4">
-        <v>-0.8567101868996476</v>
+        <v>-0.349335972139264</v>
       </c>
       <c r="F4">
-        <v>0.3922439058059521</v>
+        <v>0.7270708652417723</v>
       </c>
       <c r="G4">
-        <v>-0.7716889553528649</v>
+        <v>-0.671619121146233</v>
       </c>
       <c r="H4">
-        <v>0.3325260852120985</v>
+        <v>0.3907792285008458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>stayhome</t>
+          <t>hvacsystems</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.07570922991436647</v>
+        <v>-0.2136674666563295</v>
       </c>
       <c r="C5">
-        <v>0.3233350270611864</v>
+        <v>0.2695098932810415</v>
       </c>
       <c r="D5">
-        <v>316.711234269613</v>
+        <v>312.3120812945961</v>
       </c>
       <c r="E5">
-        <v>-0.2341510309059081</v>
+        <v>-0.7928000863163853</v>
       </c>
       <c r="F5">
-        <v>0.8150190195829594</v>
+        <v>0.4284961397644544</v>
       </c>
       <c r="G5">
-        <v>-0.6398953568217463</v>
+        <v>-0.8195911730868206</v>
       </c>
       <c r="H5">
-        <v>0.5522949766560519</v>
+        <v>0.3568066676641212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quarantine</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B6">
-        <v>-0.1346276049053362</v>
+        <v>0.2462093840699513</v>
       </c>
       <c r="C6">
-        <v>0.3179127244772665</v>
+        <v>0.1104584715247734</v>
       </c>
       <c r="D6">
-        <v>320.9755565649686</v>
+        <v>313.1883372149399</v>
       </c>
       <c r="E6">
-        <v>-0.4234734709870453</v>
+        <v>2.228976923827267</v>
       </c>
       <c r="F6">
-        <v>0.6722334668932364</v>
+        <v>0.02652465040969138</v>
       </c>
       <c r="G6">
-        <v>-0.76116640955038</v>
+        <v>0.04017570332005332</v>
       </c>
       <c r="H6">
-        <v>0.4799412250092177</v>
+        <v>0.4631421730311379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hvacsystems</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.1023475919836018</v>
+        <v>0.007159753002922884</v>
       </c>
       <c r="C7">
-        <v>0.2840991266037198</v>
+        <v>0.106308050796873</v>
       </c>
       <c r="D7">
-        <v>321.6699796949875</v>
+        <v>307.5414356965836</v>
       </c>
       <c r="E7">
-        <v>-0.3602531032288704</v>
+        <v>0.06734911372425885</v>
       </c>
       <c r="F7">
-        <v>0.7188942960732674</v>
+        <v>0.9463475419130094</v>
       </c>
       <c r="G7">
-        <v>-0.7136844132543367</v>
+        <v>-0.2047491472946226</v>
       </c>
       <c r="H7">
-        <v>0.4503140949672199</v>
+        <v>0.2139620814344607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.2189670648362516</v>
+        <v>-0.1858902960840413</v>
       </c>
       <c r="C8">
-        <v>0.1089256843700084</v>
+        <v>0.1834263111108026</v>
       </c>
       <c r="D8">
-        <v>320.1742779210419</v>
+        <v>314.3427498502933</v>
       </c>
       <c r="E8">
-        <v>2.010242727440158</v>
+        <v>-1.013433105416105</v>
       </c>
       <c r="F8">
-        <v>0.04524385782613769</v>
+        <v>0.3116327439666517</v>
       </c>
       <c r="G8">
-        <v>0.01017791871733318</v>
+        <v>-0.5237406124516112</v>
       </c>
       <c r="H8">
-        <v>0.4578387846560499</v>
+        <v>0.1503138839206129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.04201893507641118</v>
+        <v>-0.2800927873185976</v>
       </c>
       <c r="C9">
-        <v>0.1264374893470814</v>
+        <v>0.1589282842383132</v>
       </c>
       <c r="D9">
-        <v>319.8636985493265</v>
+        <v>316.0345996804233</v>
       </c>
       <c r="E9">
-        <v>0.332329717185903</v>
+        <v>-1.762384767827721</v>
       </c>
       <c r="F9">
-        <v>0.7398579796949091</v>
+        <v>0.07897093122295244</v>
       </c>
       <c r="G9">
-        <v>-0.1946553632125376</v>
+        <v>-0.5963940762842904</v>
       </c>
       <c r="H9">
-        <v>0.3104522006965788</v>
+        <v>0.02602833631159615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.06069322896202179</v>
+        <v>0.03246148166278761</v>
       </c>
       <c r="C10">
-        <v>0.1016638711562605</v>
+        <v>0.1189774813780684</v>
       </c>
       <c r="D10">
-        <v>315.8249388523635</v>
+        <v>315.8375763099982</v>
       </c>
       <c r="E10">
-        <v>0.5969989955304225</v>
+        <v>0.2728371897505252</v>
       </c>
       <c r="F10">
-        <v>0.550935781696551</v>
+        <v>0.785156671962661</v>
       </c>
       <c r="G10">
-        <v>-0.1490768599932788</v>
+        <v>-0.183878938744969</v>
       </c>
       <c r="H10">
-        <v>0.2575257270560988</v>
+        <v>0.2639981001397796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.02053526928775486</v>
+        <v>-0.07504730407697463</v>
       </c>
       <c r="C11">
-        <v>0.1187589691835923</v>
+        <v>0.1294457265193616</v>
       </c>
       <c r="D11">
-        <v>326.8461409034118</v>
+        <v>295.8924953165144</v>
       </c>
       <c r="E11">
-        <v>-0.1729155231720553</v>
+        <v>-0.579758838664709</v>
       </c>
       <c r="F11">
-        <v>0.8628248590313282</v>
+        <v>0.5625184283213394</v>
       </c>
       <c r="G11">
-        <v>-0.2470488446889419</v>
+        <v>-0.3265702449394027</v>
       </c>
       <c r="H11">
-        <v>0.1912040545960696</v>
+        <v>0.205438972520762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>schoollevelHS</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.2968868155671543</v>
+      </c>
+      <c r="C12">
+        <v>0.2403261880129371</v>
+      </c>
+      <c r="D12">
+        <v>312.0120573537195</v>
+      </c>
+      <c r="E12">
+        <v>1.235349414151955</v>
+      </c>
+      <c r="F12">
+        <v>0.2176298578119353</v>
+      </c>
+      <c r="G12">
+        <v>-0.1662213131087867</v>
+      </c>
+      <c r="H12">
+        <v>0.8018929081282742</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>schoollevelMS</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.2650399423239083</v>
+      </c>
+      <c r="C13">
+        <v>0.2309032696260973</v>
+      </c>
+      <c r="D13">
+        <v>305.6084380600794</v>
+      </c>
+      <c r="E13">
+        <v>1.147839711204994</v>
+      </c>
+      <c r="F13">
+        <v>0.2519324641920949</v>
+      </c>
+      <c r="G13">
+        <v>-0.20777341622159</v>
+      </c>
+      <c r="H13">
+        <v>0.7298476124158179</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>cntycaseschange</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.02705577761543656</v>
-      </c>
-      <c r="C12">
-        <v>0.1692301678576942</v>
-      </c>
-      <c r="D12">
-        <v>50.10050480603021</v>
-      </c>
-      <c r="E12">
-        <v>-0.1598756176746677</v>
-      </c>
-      <c r="F12">
-        <v>0.8736218915513558</v>
-      </c>
-      <c r="G12">
-        <v>-0.3822581562388312</v>
-      </c>
-      <c r="H12">
-        <v>0.3072631456666561</v>
+      <c r="B14">
+        <v>-0.0852107857068012</v>
+      </c>
+      <c r="C14">
+        <v>0.1659450681926101</v>
+      </c>
+      <c r="D14">
+        <v>50.26829525322558</v>
+      </c>
+      <c r="E14">
+        <v>-0.5134879067806839</v>
+      </c>
+      <c r="F14">
+        <v>0.6098597333152853</v>
+      </c>
+      <c r="G14">
+        <v>-0.448634598209375</v>
+      </c>
+      <c r="H14">
+        <v>0.2198282882507257</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1610,25 +1778,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.119787871238478</v>
+        <v>1.019936386210659</v>
       </c>
       <c r="C2">
-        <v>0.3462929642315937</v>
+        <v>0.3501290814180876</v>
       </c>
       <c r="D2">
-        <v>3.19993865431608</v>
+        <v>3.59215465341249</v>
       </c>
       <c r="E2">
-        <v>3.233643148723018</v>
+        <v>2.913029623474086</v>
       </c>
       <c r="F2">
-        <v>0.0438783792067052</v>
+        <v>0.04964264048460895</v>
       </c>
       <c r="G2">
-        <v>0.51108896121077</v>
+        <v>0.3391560086123647</v>
       </c>
       <c r="H2">
-        <v>1.773774464474347</v>
+        <v>1.673801670501873</v>
       </c>
     </row>
     <row r="3">
@@ -1638,25 +1806,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.151456738696375</v>
+        <v>0.1467560660755715</v>
       </c>
       <c r="C3">
-        <v>0.3747864526066028</v>
+        <v>0.2817865800500486</v>
       </c>
       <c r="D3">
-        <v>316.6468347412283</v>
+        <v>313.8735359285676</v>
       </c>
       <c r="E3">
-        <v>3.07230085476171</v>
+        <v>0.5208057319461625</v>
       </c>
       <c r="F3">
-        <v>0.002308560704009505</v>
+        <v>0.6028693164558701</v>
       </c>
       <c r="G3">
-        <v>0.4434001194055598</v>
+        <v>-0.4144498456959167</v>
       </c>
       <c r="H3">
-        <v>1.934184507487369</v>
+        <v>0.7682511800530907</v>
       </c>
     </row>
     <row r="4">
@@ -1666,25 +1834,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.2381020067881339</v>
+        <v>-0.2327443359414642</v>
       </c>
       <c r="C4">
-        <v>0.3178940349671798</v>
+        <v>0.2682367251758448</v>
       </c>
       <c r="D4">
-        <v>317.9189758871262</v>
+        <v>309.5217915272995</v>
       </c>
       <c r="E4">
-        <v>-0.7489980326705916</v>
+        <v>-0.867682588164938</v>
       </c>
       <c r="F4">
-        <v>0.4544121929417947</v>
+        <v>0.386240323001902</v>
       </c>
       <c r="G4">
-        <v>-0.8560038129800422</v>
+        <v>-0.7857515133255143</v>
       </c>
       <c r="H4">
-        <v>0.3741604063986754</v>
+        <v>0.2945126104342218</v>
       </c>
     </row>
     <row r="5">
@@ -1694,221 +1862,277 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.1909585077139276</v>
+        <v>-0.5333974978298059</v>
       </c>
       <c r="C5">
-        <v>0.2848436095403395</v>
+        <v>0.2540682459447652</v>
       </c>
       <c r="D5">
-        <v>319.4245127832168</v>
+        <v>307.7569062106648</v>
       </c>
       <c r="E5">
-        <v>-0.6703977246394359</v>
+        <v>-2.09942606501785</v>
       </c>
       <c r="F5">
-        <v>0.5030886792082174</v>
+        <v>0.03659352146781997</v>
       </c>
       <c r="G5">
-        <v>-0.7405048239603009</v>
+        <v>-1.074892011609657</v>
       </c>
       <c r="H5">
-        <v>0.3454266985904774</v>
+        <v>-0.05033904930131989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ss4</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B6">
-        <v>-0.3506836686055282</v>
+        <v>0.2417221461176046</v>
       </c>
       <c r="C6">
-        <v>0.3014129586678758</v>
+        <v>0.1099544191761751</v>
       </c>
       <c r="D6">
-        <v>316.8475302263918</v>
+        <v>313.6031573479346</v>
       </c>
       <c r="E6">
-        <v>-1.163465798402992</v>
+        <v>2.198385002882912</v>
       </c>
       <c r="F6">
-        <v>0.2455159855425896</v>
+        <v>0.02865195558438659</v>
       </c>
       <c r="G6">
-        <v>-1.010365666905043</v>
+        <v>0.03014704123356736</v>
       </c>
       <c r="H6">
-        <v>0.2127856070736047</v>
+        <v>0.4617569371249184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ss5</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.8722499558052558</v>
+        <v>0.007315042302660738</v>
       </c>
       <c r="C7">
-        <v>0.4064195003909654</v>
+        <v>0.1057367390988412</v>
       </c>
       <c r="D7">
-        <v>318.3069063054671</v>
+        <v>308.2798371672647</v>
       </c>
       <c r="E7">
-        <v>-2.146181359324967</v>
+        <v>0.06918165213911827</v>
       </c>
       <c r="F7">
-        <v>0.03261421369226185</v>
+        <v>0.9448898796854626</v>
       </c>
       <c r="G7">
-        <v>-1.72571717927436</v>
+        <v>-0.2178068482459248</v>
       </c>
       <c r="H7">
-        <v>-0.04115656322485788</v>
+        <v>0.2239814185215629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.2247100665564973</v>
+        <v>-0.1935163326560597</v>
       </c>
       <c r="C8">
-        <v>0.106626284552363</v>
+        <v>0.1838210677680213</v>
       </c>
       <c r="D8">
-        <v>319.4626475385238</v>
+        <v>314.4696479895696</v>
       </c>
       <c r="E8">
-        <v>2.107454719067366</v>
+        <v>-1.052742947289772</v>
       </c>
       <c r="F8">
-        <v>0.0358571530128856</v>
+        <v>0.2932670504991191</v>
       </c>
       <c r="G8">
-        <v>0.0158720002171941</v>
+        <v>-0.5509657294632874</v>
       </c>
       <c r="H8">
-        <v>0.4166381458085621</v>
+        <v>0.1872038132656926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.01511415065951971</v>
+        <v>-0.2812672173871388</v>
       </c>
       <c r="C9">
-        <v>0.1237329550085117</v>
+        <v>0.1588094021186323</v>
       </c>
       <c r="D9">
-        <v>317.0747305150567</v>
+        <v>315.9269887853191</v>
       </c>
       <c r="E9">
-        <v>0.1221513755852675</v>
+        <v>-1.771099277718011</v>
       </c>
       <c r="F9">
-        <v>0.9028565158174739</v>
+        <v>0.07750829082893188</v>
       </c>
       <c r="G9">
-        <v>-0.2451664738724416</v>
+        <v>-0.5752029006489744</v>
       </c>
       <c r="H9">
-        <v>0.2700979701042495</v>
+        <v>0.04807453608565254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.07639449484575858</v>
+        <v>0.02739483338161914</v>
       </c>
       <c r="C10">
-        <v>0.09902246113111433</v>
+        <v>0.1187599153493316</v>
       </c>
       <c r="D10">
-        <v>314.4250595975469</v>
+        <v>315.897999714151</v>
       </c>
       <c r="E10">
-        <v>0.7714865291482267</v>
+        <v>0.2306740729903468</v>
       </c>
       <c r="F10">
-        <v>0.4409980022449698</v>
+        <v>0.817717335487248</v>
       </c>
       <c r="G10">
-        <v>-0.1202506147834792</v>
+        <v>-0.2023817871351108</v>
       </c>
       <c r="H10">
-        <v>0.2802676959052567</v>
+        <v>0.2668169390559167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.04455761377648011</v>
+        <v>-0.07457669249072947</v>
       </c>
       <c r="C11">
-        <v>0.1162976460585631</v>
+        <v>0.1289449194915269</v>
       </c>
       <c r="D11">
-        <v>326.4832436813548</v>
+        <v>294.9717668854305</v>
       </c>
       <c r="E11">
-        <v>-0.3831342704395114</v>
+        <v>-0.5783608441868854</v>
       </c>
       <c r="F11">
-        <v>0.7018695503515311</v>
+        <v>0.5634618251164623</v>
       </c>
       <c r="G11">
-        <v>-0.2828858047348269</v>
+        <v>-0.3495560366826748</v>
       </c>
       <c r="H11">
-        <v>0.1782421303955931</v>
+        <v>0.1639111289250713</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>schoollevelHS</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.2843159285265787</v>
+      </c>
+      <c r="C12">
+        <v>0.2415550545014362</v>
+      </c>
+      <c r="D12">
+        <v>312.8326751035534</v>
+      </c>
+      <c r="E12">
+        <v>1.177023304742681</v>
+      </c>
+      <c r="F12">
+        <v>0.2400809627951311</v>
+      </c>
+      <c r="G12">
+        <v>-0.1840134396929747</v>
+      </c>
+      <c r="H12">
+        <v>0.7395959015295039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>schoollevelMS</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.2370338004343112</v>
+      </c>
+      <c r="C13">
+        <v>0.2313878247894691</v>
+      </c>
+      <c r="D13">
+        <v>305.1396280436675</v>
+      </c>
+      <c r="E13">
+        <v>1.024400487147408</v>
+      </c>
+      <c r="F13">
+        <v>0.3064575649738183</v>
+      </c>
+      <c r="G13">
+        <v>-0.1840567854435975</v>
+      </c>
+      <c r="H13">
+        <v>0.7080023102562109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>cntycaseschange</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.07440649102424353</v>
-      </c>
-      <c r="C12">
-        <v>0.1704139940954689</v>
-      </c>
-      <c r="D12">
-        <v>51.30475291806636</v>
-      </c>
-      <c r="E12">
-        <v>-0.4366219536088081</v>
-      </c>
-      <c r="F12">
-        <v>0.664217630988077</v>
-      </c>
-      <c r="G12">
-        <v>-0.4489065711092001</v>
-      </c>
-      <c r="H12">
-        <v>0.2432940617211522</v>
+      <c r="B14">
+        <v>-0.08589858777288259</v>
+      </c>
+      <c r="C14">
+        <v>0.1652708127357512</v>
+      </c>
+      <c r="D14">
+        <v>51.10461248121192</v>
+      </c>
+      <c r="E14">
+        <v>-0.5197444506443157</v>
+      </c>
+      <c r="F14">
+        <v>0.6054857849294826</v>
+      </c>
+      <c r="G14">
+        <v>-0.4145941556385805</v>
+      </c>
+      <c r="H14">
+        <v>0.301868495589776</v>
       </c>
     </row>
   </sheetData>

--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -409,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.0799107189589654</v>
+        <v>-0.02424720108289974</v>
       </c>
       <c r="C2">
-        <v>0.2950473074773463</v>
+        <v>0.3341658208863826</v>
       </c>
       <c r="D2">
-        <v>314.7667064091086</v>
+        <v>470.5623598832705</v>
       </c>
       <c r="E2">
-        <v>-0.270840359948382</v>
+        <v>-0.07256038639314899</v>
       </c>
       <c r="F2">
-        <v>0.7866913322804363</v>
+        <v>0.9421867813849075</v>
       </c>
       <c r="G2">
-        <v>-0.6863037580082422</v>
+        <v>-0.6859607825070949</v>
       </c>
       <c r="H2">
-        <v>0.5340209186963749</v>
+        <v>0.6090970867095751</v>
       </c>
     </row>
     <row r="3">
@@ -437,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.1274397351786616</v>
+        <v>0.2223084071982762</v>
       </c>
       <c r="C3">
-        <v>0.2207467814659963</v>
+        <v>0.2728564982016551</v>
       </c>
       <c r="D3">
-        <v>314.1613134987312</v>
+        <v>477.6771958650006</v>
       </c>
       <c r="E3">
-        <v>-0.5773118608222712</v>
+        <v>0.8147447785318229</v>
       </c>
       <c r="F3">
-        <v>0.5641422864417216</v>
+        <v>0.4156244215872013</v>
       </c>
       <c r="G3">
-        <v>-0.5414938699477077</v>
+        <v>-0.2756285239397731</v>
       </c>
       <c r="H3">
-        <v>0.2705874538313923</v>
+        <v>0.763476768179945</v>
       </c>
     </row>
     <row r="4">
@@ -465,25 +465,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.3799986035219615</v>
+        <v>-0.03727083864757028</v>
       </c>
       <c r="C4">
-        <v>0.2108093534074392</v>
+        <v>0.2643720810347491</v>
       </c>
       <c r="D4">
-        <v>311.4330250730235</v>
+        <v>474.6786860262078</v>
       </c>
       <c r="E4">
-        <v>-1.802569939994663</v>
+        <v>-0.1409787240078176</v>
       </c>
       <c r="F4">
-        <v>0.07242246184307898</v>
+        <v>0.8879465567978171</v>
       </c>
       <c r="G4">
-        <v>-0.8292131235654691</v>
+        <v>-0.5181684728318796</v>
       </c>
       <c r="H4">
-        <v>0.03397208629923445</v>
+        <v>0.4845595290207954</v>
       </c>
     </row>
     <row r="5">
@@ -493,25 +493,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.3531660559294014</v>
+        <v>0.3513727987172851</v>
       </c>
       <c r="C5">
-        <v>0.2641668168800322</v>
+        <v>0.2881063545016614</v>
       </c>
       <c r="D5">
-        <v>313.9972614284605</v>
+        <v>476.7934468659936</v>
       </c>
       <c r="E5">
-        <v>-1.336905445205053</v>
+        <v>1.219594060412364</v>
       </c>
       <c r="F5">
-        <v>0.182221279481996</v>
+        <v>0.2232217479933073</v>
       </c>
       <c r="G5">
-        <v>-0.8403736962927437</v>
+        <v>-0.222868159976199</v>
       </c>
       <c r="H5">
-        <v>0.2014825804931661</v>
+        <v>0.8893941739052161</v>
       </c>
     </row>
     <row r="6">
@@ -521,25 +521,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.3251056114327599</v>
+        <v>0.418694181391828</v>
       </c>
       <c r="C6">
-        <v>0.1878680797083489</v>
+        <v>0.1882464418602531</v>
       </c>
       <c r="D6">
-        <v>309.6899441999259</v>
+        <v>473.1093509835314</v>
       </c>
       <c r="E6">
-        <v>-1.730499465036647</v>
+        <v>2.224181117338996</v>
       </c>
       <c r="F6">
-        <v>0.08453721601732975</v>
+        <v>0.02660746632989025</v>
       </c>
       <c r="G6">
-        <v>-0.7100387544307412</v>
+        <v>0.03153274570289699</v>
       </c>
       <c r="H6">
-        <v>0.03383481696769968</v>
+        <v>0.8308345035245165</v>
       </c>
     </row>
     <row r="7">
@@ -549,25 +549,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.1699855911377655</v>
+        <v>0.1766159180694455</v>
       </c>
       <c r="C7">
-        <v>0.2056289464940612</v>
+        <v>0.2164219538818478</v>
       </c>
       <c r="D7">
-        <v>314.4433251230593</v>
+        <v>473.7746064314373</v>
       </c>
       <c r="E7">
-        <v>-0.8266617810186315</v>
+        <v>0.8160720985167067</v>
       </c>
       <c r="F7">
-        <v>0.4090556261130133</v>
+        <v>0.4148690052290959</v>
       </c>
       <c r="G7">
-        <v>-0.5362340731085516</v>
+        <v>-0.2393201098716867</v>
       </c>
       <c r="H7">
-        <v>0.2168913275400292</v>
+        <v>0.6035013296093085</v>
       </c>
     </row>
     <row r="8">
@@ -577,25 +577,25 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.2926641986793991</v>
+        <v>0.521312731182508</v>
       </c>
       <c r="C8">
-        <v>0.1978352087123081</v>
+        <v>0.2157631924833057</v>
       </c>
       <c r="D8">
-        <v>311.2613680406293</v>
+        <v>475.2000666200457</v>
       </c>
       <c r="E8">
-        <v>-1.479333231856576</v>
+        <v>2.416133749146503</v>
       </c>
       <c r="F8">
-        <v>0.1400626067014035</v>
+        <v>0.01606230626807456</v>
       </c>
       <c r="G8">
-        <v>-0.7163386213151591</v>
+        <v>0.09151340893835903</v>
       </c>
       <c r="H8">
-        <v>0.07768607683605171</v>
+        <v>0.9211536295482303</v>
       </c>
     </row>
     <row r="9">
@@ -605,25 +605,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.09140525571134607</v>
+        <v>0.4623586159696922</v>
       </c>
       <c r="C9">
-        <v>0.2116477430200132</v>
+        <v>0.2311568931993636</v>
       </c>
       <c r="D9">
-        <v>310.6729653610504</v>
+        <v>476.25149266249</v>
       </c>
       <c r="E9">
-        <v>-0.4318744646509313</v>
+        <v>2.000193935687336</v>
       </c>
       <c r="F9">
-        <v>0.6661322270008083</v>
+        <v>0.04604664349010873</v>
       </c>
       <c r="G9">
-        <v>-0.5273959452729431</v>
+        <v>0.009135484523129695</v>
       </c>
       <c r="H9">
-        <v>0.308228289399283</v>
+        <v>0.9165981629905703</v>
       </c>
     </row>
     <row r="10">
@@ -633,25 +633,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.03080377082110764</v>
+        <v>0.03499893030919857</v>
       </c>
       <c r="C10">
-        <v>0.4744489806979797</v>
+        <v>0.6159680915735005</v>
       </c>
       <c r="D10">
-        <v>315.7338649163115</v>
+        <v>475.213899389979</v>
       </c>
       <c r="E10">
-        <v>0.06492535988967889</v>
+        <v>0.05681938851701431</v>
       </c>
       <c r="F10">
-        <v>0.9482745165970187</v>
+        <v>0.9547129511276577</v>
       </c>
       <c r="G10">
-        <v>-0.9839890924976548</v>
+        <v>-1.150137065598378</v>
       </c>
       <c r="H10">
-        <v>0.9623956643511929</v>
+        <v>1.114129321448376</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.3778062483763462</v>
+        <v>0.4183979268282756</v>
       </c>
       <c r="C11">
-        <v>0.1998063181692086</v>
+        <v>0.2226863848101485</v>
       </c>
       <c r="D11">
-        <v>311.1593509484661</v>
+        <v>473.6831214985562</v>
       </c>
       <c r="E11">
-        <v>-1.890862370310012</v>
+        <v>1.878866223388472</v>
       </c>
       <c r="F11">
-        <v>0.05957155127437547</v>
+        <v>0.06087658125895376</v>
       </c>
       <c r="G11">
-        <v>-0.7757051183242542</v>
+        <v>-0.05319205391199796</v>
       </c>
       <c r="H11">
-        <v>0.02031413776837592</v>
+        <v>0.8165247822289547</v>
       </c>
     </row>
   </sheetData>
@@ -744,25 +744,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.04477437421427</v>
+        <v>1.04446816284107</v>
       </c>
       <c r="C2">
-        <v>0.3708327896966926</v>
+        <v>0.3705824833661098</v>
       </c>
       <c r="D2">
-        <v>3.495027825631593</v>
+        <v>2.944803328178504</v>
       </c>
       <c r="E2">
-        <v>2.817373229235744</v>
+        <v>2.818449899072017</v>
       </c>
       <c r="F2">
-        <v>0.0560359503364208</v>
+        <v>0.06827726416320876</v>
       </c>
       <c r="G2">
-        <v>0.3181988203140237</v>
+        <v>0.3347085639814449</v>
       </c>
       <c r="H2">
-        <v>1.776253708184791</v>
+        <v>1.815445238183024</v>
       </c>
     </row>
     <row r="3">
@@ -772,25 +772,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3308220178452134</v>
+        <v>-0.2774082399686174</v>
       </c>
       <c r="C3">
-        <v>0.3497422968457047</v>
+        <v>0.3970396881801698</v>
       </c>
       <c r="D3">
-        <v>307.5963640255861</v>
+        <v>458.9557970315479</v>
       </c>
       <c r="E3">
-        <v>0.9459022280944236</v>
+        <v>-0.6986914614005396</v>
       </c>
       <c r="F3">
-        <v>0.3449409025307362</v>
+        <v>0.4850987569832158</v>
       </c>
       <c r="G3">
-        <v>-0.440185267948671</v>
+        <v>-1.122274853162623</v>
       </c>
       <c r="H3">
-        <v>1.095795258557251</v>
+        <v>0.5085177635865432</v>
       </c>
     </row>
     <row r="4">
@@ -800,25 +800,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1404451158350592</v>
+        <v>-0.2606876408111538</v>
       </c>
       <c r="C4">
-        <v>0.2699331384552864</v>
+        <v>0.376117118998555</v>
       </c>
       <c r="D4">
-        <v>307.5232490325614</v>
+        <v>464.8740849610583</v>
       </c>
       <c r="E4">
-        <v>0.5202959393528612</v>
+        <v>-0.693102301499218</v>
       </c>
       <c r="F4">
-        <v>0.6032316875134789</v>
+        <v>0.4885914736142684</v>
       </c>
       <c r="G4">
-        <v>-0.3549437009413518</v>
+        <v>-1.07034550895581</v>
       </c>
       <c r="H4">
-        <v>0.6832286569034345</v>
+        <v>0.4213363637760271</v>
       </c>
     </row>
     <row r="5">
@@ -828,25 +828,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.2777934965231654</v>
+        <v>-0.7198623285289479</v>
       </c>
       <c r="C5">
-        <v>0.2808999647253254</v>
+        <v>0.3569253243535143</v>
       </c>
       <c r="D5">
-        <v>305.8046948095033</v>
+        <v>463.8778668999981</v>
       </c>
       <c r="E5">
-        <v>-0.9889410160474827</v>
+        <v>-2.016842962411838</v>
       </c>
       <c r="F5">
-        <v>0.3234738268564517</v>
+        <v>0.04428754862638964</v>
       </c>
       <c r="G5">
-        <v>-0.8384331211509193</v>
+        <v>-1.332756386387727</v>
       </c>
       <c r="H5">
-        <v>0.2958272126885533</v>
+        <v>-0.02678417102055537</v>
       </c>
     </row>
     <row r="6">
@@ -856,25 +856,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.3129444011968199</v>
+        <v>0.06547638707473509</v>
       </c>
       <c r="C6">
-        <v>0.3117882698391852</v>
+        <v>0.3971634076017676</v>
       </c>
       <c r="D6">
-        <v>303.8303231648985</v>
+        <v>467.0885403179595</v>
       </c>
       <c r="E6">
-        <v>-1.003708065599232</v>
+        <v>0.1648600697383172</v>
       </c>
       <c r="F6">
-        <v>0.3163180369992388</v>
+        <v>0.8691254437284397</v>
       </c>
       <c r="G6">
-        <v>-0.991156306002185</v>
+        <v>-0.7643050455027802</v>
       </c>
       <c r="H6">
-        <v>0.3580552202794234</v>
+        <v>0.8189511464585175</v>
       </c>
     </row>
     <row r="7">
@@ -884,25 +884,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.198887448598795</v>
+        <v>0.2368716542787355</v>
       </c>
       <c r="C7">
-        <v>0.3246737416003399</v>
+        <v>0.3170320046047944</v>
       </c>
       <c r="D7">
-        <v>300.1799862150773</v>
+        <v>459.8967837780841</v>
       </c>
       <c r="E7">
-        <v>-0.6125763285274155</v>
+        <v>0.7471537599934581</v>
       </c>
       <c r="F7">
-        <v>0.5406202867051857</v>
+        <v>0.4553525692552775</v>
       </c>
       <c r="G7">
-        <v>-0.8544833293570513</v>
+        <v>-0.3996768611546439</v>
       </c>
       <c r="H7">
-        <v>0.4661719936185974</v>
+        <v>0.8443518051072642</v>
       </c>
     </row>
     <row r="8">
@@ -912,25 +912,25 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1285594070604574</v>
+        <v>-0.1869843462900521</v>
       </c>
       <c r="C8">
-        <v>0.2712402840080937</v>
+        <v>0.3006240213003629</v>
       </c>
       <c r="D8">
-        <v>306.2506741003893</v>
+        <v>458.5973795915107</v>
       </c>
       <c r="E8">
-        <v>0.4739687083376644</v>
+        <v>-0.621987376395415</v>
       </c>
       <c r="F8">
-        <v>0.6358599495528671</v>
+        <v>0.5342592639988465</v>
       </c>
       <c r="G8">
-        <v>-0.4189711221319284</v>
+        <v>-0.7672248395676441</v>
       </c>
       <c r="H8">
-        <v>0.6856963362563865</v>
+        <v>0.3998827019370136</v>
       </c>
     </row>
     <row r="9">
@@ -940,25 +940,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.05585202369226342</v>
+        <v>0.5789140098213742</v>
       </c>
       <c r="C9">
-        <v>0.3211977072310528</v>
+        <v>0.3632919903544313</v>
       </c>
       <c r="D9">
-        <v>302.633588188861</v>
+        <v>462.0319034846163</v>
       </c>
       <c r="E9">
-        <v>-0.1738867446276209</v>
+        <v>1.593522635213014</v>
       </c>
       <c r="F9">
-        <v>0.8620707265038388</v>
+        <v>0.1117268276883056</v>
       </c>
       <c r="G9">
-        <v>-0.7026777078771382</v>
+        <v>-0.06949447561133593</v>
       </c>
       <c r="H9">
-        <v>0.564243108180962</v>
+        <v>1.301485399065421</v>
       </c>
     </row>
     <row r="10">
@@ -968,25 +968,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.3301788999818811</v>
+        <v>0.3188534111248757</v>
       </c>
       <c r="C10">
-        <v>0.2824984438625727</v>
+        <v>0.3092408752019946</v>
       </c>
       <c r="D10">
-        <v>306.3976970345419</v>
+        <v>462.6266073630771</v>
       </c>
       <c r="E10">
-        <v>1.168781305367132</v>
+        <v>1.031084299307464</v>
       </c>
       <c r="F10">
-        <v>0.2434002793918812</v>
+        <v>0.3030400246229749</v>
       </c>
       <c r="G10">
-        <v>-0.2250116263620745</v>
+        <v>-0.2545702486493202</v>
       </c>
       <c r="H10">
-        <v>0.8166778847381477</v>
+        <v>0.9456260837457102</v>
       </c>
     </row>
     <row r="11">
@@ -996,25 +996,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.2454442922230812</v>
+        <v>0.04792500471429156</v>
       </c>
       <c r="C11">
-        <v>0.4939146605801504</v>
+        <v>0.6737246940124154</v>
       </c>
       <c r="D11">
-        <v>306.1816115689768</v>
+        <v>466.3493903270461</v>
       </c>
       <c r="E11">
-        <v>0.496936640703848</v>
+        <v>0.07113440421616549</v>
       </c>
       <c r="F11">
-        <v>0.619590352720695</v>
+        <v>0.9433212816169654</v>
       </c>
       <c r="G11">
-        <v>-0.5986106213204089</v>
+        <v>-1.289932735295395</v>
       </c>
       <c r="H11">
-        <v>1.287264239511206</v>
+        <v>1.406276599778618</v>
       </c>
     </row>
     <row r="12">
@@ -1024,137 +1024,137 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.3979197801928326</v>
+        <v>0.3223026798693334</v>
       </c>
       <c r="C12">
-        <v>0.3036131901000914</v>
+        <v>0.3277319275746746</v>
       </c>
       <c r="D12">
-        <v>304.1138942274961</v>
+        <v>459.701890102029</v>
       </c>
       <c r="E12">
-        <v>-1.310614272264164</v>
+        <v>0.9834338761391987</v>
       </c>
       <c r="F12">
-        <v>0.1909770149727085</v>
+        <v>0.3259112399783367</v>
       </c>
       <c r="G12">
-        <v>-1.005186457108123</v>
+        <v>-0.3597129833497981</v>
       </c>
       <c r="H12">
-        <v>0.1690738811731455</v>
+        <v>0.9967346463772052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.2416677441071239</v>
+        <v>-0.2717130600181457</v>
       </c>
       <c r="C13">
-        <v>0.1117533709155031</v>
+        <v>0.2869000847420346</v>
       </c>
       <c r="D13">
-        <v>305.789606964037</v>
+        <v>417.3441304756939</v>
       </c>
       <c r="E13">
-        <v>2.16250965968489</v>
+        <v>-0.9470651089645225</v>
       </c>
       <c r="F13">
-        <v>0.03135395887989921</v>
+        <v>0.3441536278489983</v>
       </c>
       <c r="G13">
-        <v>0.0396335868856666</v>
+        <v>-0.7978681389912853</v>
       </c>
       <c r="H13">
-        <v>0.4612714824673605</v>
+        <v>0.2840211577257035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.008172167792568161</v>
+        <v>0.1787153018630698</v>
       </c>
       <c r="C14">
-        <v>0.1082511610867136</v>
+        <v>0.1588393749869651</v>
       </c>
       <c r="D14">
-        <v>301.3341404611353</v>
+        <v>97.06422558397891</v>
       </c>
       <c r="E14">
-        <v>0.07549265717364381</v>
+        <v>1.125132240527487</v>
       </c>
       <c r="F14">
-        <v>0.9398728335503802</v>
+        <v>0.2633075043866149</v>
       </c>
       <c r="G14">
-        <v>-0.207989197359477</v>
+        <v>-0.1156935879330638</v>
       </c>
       <c r="H14">
-        <v>0.2302288009828728</v>
+        <v>0.4912923196948302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B15">
-        <v>-0.1512414194442059</v>
+        <v>0.125995395575619</v>
       </c>
       <c r="C15">
-        <v>0.1871981884947746</v>
+        <v>0.1230372382722537</v>
       </c>
       <c r="D15">
-        <v>306.1385349013938</v>
+        <v>464.6482813649147</v>
       </c>
       <c r="E15">
-        <v>-0.8079213835363991</v>
+        <v>1.024042780420831</v>
       </c>
       <c r="F15">
-        <v>0.4197631670118366</v>
+        <v>0.3063479038179699</v>
       </c>
       <c r="G15">
-        <v>-0.5041156234951172</v>
+        <v>-0.1185467839050406</v>
       </c>
       <c r="H15">
-        <v>0.2606790962874317</v>
+        <v>0.3373299190970604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B16">
-        <v>-0.2477519867282715</v>
+        <v>0.05278758529149615</v>
       </c>
       <c r="C16">
-        <v>0.1632498197559699</v>
+        <v>0.1372508658161568</v>
       </c>
       <c r="D16">
-        <v>309.2100261580044</v>
+        <v>454.1206156657009</v>
       </c>
       <c r="E16">
-        <v>-1.517624871492156</v>
+        <v>0.3846065740831353</v>
       </c>
       <c r="F16">
-        <v>0.1301307014290082</v>
+        <v>0.7007089681035408</v>
       </c>
       <c r="G16">
-        <v>-0.5742883369228899</v>
+        <v>-0.2211291948826418</v>
       </c>
       <c r="H16">
-        <v>0.09953404182004762</v>
+        <v>0.3121346921282455</v>
       </c>
     </row>
     <row r="17">
@@ -1164,137 +1164,137 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.03706785273291435</v>
+        <v>0.09576052403201545</v>
       </c>
       <c r="C17">
-        <v>0.1203799771215855</v>
+        <v>0.1108765797299073</v>
       </c>
       <c r="D17">
-        <v>308.9179389193707</v>
+        <v>469.2511768982276</v>
       </c>
       <c r="E17">
-        <v>0.3079237396388213</v>
+        <v>0.8636677309607295</v>
       </c>
       <c r="F17">
-        <v>0.7583478729711702</v>
+        <v>0.3882116740575916</v>
       </c>
       <c r="G17">
-        <v>-0.1989967464636757</v>
+        <v>-0.1162670119871438</v>
       </c>
       <c r="H17">
-        <v>0.2766333969363606</v>
+        <v>0.2983441831520344</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B18">
-        <v>-0.07114804217175208</v>
+        <v>-0.2296039556284202</v>
       </c>
       <c r="C18">
-        <v>0.1307709637601449</v>
+        <v>0.4171066184094411</v>
       </c>
       <c r="D18">
-        <v>291.1522965666607</v>
+        <v>420.916221239855</v>
       </c>
       <c r="E18">
-        <v>-0.5440660535487762</v>
+        <v>-0.5504682627764873</v>
       </c>
       <c r="F18">
-        <v>0.5868124097171972</v>
+        <v>0.5822902504704852</v>
       </c>
       <c r="G18">
-        <v>-0.3458548361633152</v>
+        <v>-1.046269214755446</v>
       </c>
       <c r="H18">
-        <v>0.1820963826241052</v>
+        <v>0.5998133679432027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.3125045264688433</v>
+        <v>0.02258506003392216</v>
       </c>
       <c r="C19">
-        <v>0.2471640671497359</v>
+        <v>0.08573099490779031</v>
       </c>
       <c r="D19">
-        <v>305.6387565143285</v>
+        <v>467.7536640051476</v>
       </c>
       <c r="E19">
-        <v>1.26436067375248</v>
+        <v>0.2634410117159375</v>
       </c>
       <c r="F19">
-        <v>0.2070639221570228</v>
+        <v>0.7923266934733101</v>
       </c>
       <c r="G19">
-        <v>-0.1486136884593228</v>
+        <v>-0.159097107675231</v>
       </c>
       <c r="H19">
-        <v>0.8025048657960125</v>
+        <v>0.1939186589465419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.2716746986101293</v>
+        <v>-0.06378724379239371</v>
       </c>
       <c r="C20">
-        <v>0.2345168999552951</v>
+        <v>0.349941372091986</v>
       </c>
       <c r="D20">
-        <v>299.8233403674687</v>
+        <v>420.0243792741259</v>
       </c>
       <c r="E20">
-        <v>1.158444012614517</v>
+        <v>-0.1822798013594875</v>
       </c>
       <c r="F20">
-        <v>0.2476047717452251</v>
+        <v>0.8554510903865802</v>
       </c>
       <c r="G20">
-        <v>-0.1941153415818908</v>
+        <v>-0.8055381058569917</v>
       </c>
       <c r="H20">
-        <v>0.720510054627521</v>
+        <v>0.6162354443331139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="B21">
-        <v>-0.08261239724010899</v>
+        <v>-0.1965212763229059</v>
       </c>
       <c r="C21">
-        <v>0.1668889456261903</v>
+        <v>0.1467746189189167</v>
       </c>
       <c r="D21">
-        <v>50.2024293734299</v>
+        <v>465.5596802126574</v>
       </c>
       <c r="E21">
-        <v>-0.4950141959980387</v>
+        <v>-1.338932287955528</v>
       </c>
       <c r="F21">
-        <v>0.6227497846074548</v>
+        <v>0.1812460976386667</v>
       </c>
       <c r="G21">
-        <v>-0.4475046504505347</v>
+        <v>-0.5051060871604133</v>
       </c>
       <c r="H21">
-        <v>0.2952978866286234</v>
+        <v>0.07868961522836471</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1359,361 +1359,389 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.07216844983058</v>
+        <v>1.012896479786968</v>
       </c>
       <c r="C2">
-        <v>0.3549718854161132</v>
+        <v>0.3664212437830334</v>
       </c>
       <c r="D2">
-        <v>3.480258383336976</v>
+        <v>2.95344972644747</v>
       </c>
       <c r="E2">
-        <v>3.020432022591699</v>
+        <v>2.764295184770258</v>
       </c>
       <c r="F2">
-        <v>0.04685948347091481</v>
+        <v>0.07114170992639496</v>
       </c>
       <c r="G2">
-        <v>0.3345911405269578</v>
+        <v>0.3173455811734824</v>
       </c>
       <c r="H2">
-        <v>1.763258251364656</v>
+        <v>1.789780155573959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>physicaldistancing</t>
+          <t>stayhome</t>
         </is>
       </c>
       <c r="B3">
-        <v>-0.2034652089703249</v>
+        <v>0.102430794428412</v>
       </c>
       <c r="C3">
-        <v>0.2655103256279184</v>
+        <v>0.2992580893316208</v>
       </c>
       <c r="D3">
-        <v>311.0088768201954</v>
+        <v>465.1786001822384</v>
       </c>
       <c r="E3">
-        <v>-0.7663175000412511</v>
+        <v>0.3422824581189652</v>
       </c>
       <c r="F3">
-        <v>0.4440686499153138</v>
+        <v>0.732292928861274</v>
       </c>
       <c r="G3">
-        <v>-0.7282650723831602</v>
+        <v>-0.5024942111631746</v>
       </c>
       <c r="H3">
-        <v>0.3139316282962111</v>
+        <v>0.6232719298162497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stayhome</t>
+          <t>quarantine</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.0917278474913371</v>
+        <v>0.3033380066822058</v>
       </c>
       <c r="C4">
-        <v>0.2625777326326115</v>
+        <v>0.3256245437355955</v>
       </c>
       <c r="D4">
-        <v>314.5222676229762</v>
+        <v>465.6391441594774</v>
       </c>
       <c r="E4">
-        <v>-0.349335972139264</v>
+        <v>0.9315575638196176</v>
       </c>
       <c r="F4">
-        <v>0.7270708652417723</v>
+        <v>0.3520479573741527</v>
       </c>
       <c r="G4">
-        <v>-0.671619121146233</v>
+        <v>-0.3668416543360798</v>
       </c>
       <c r="H4">
-        <v>0.3907792285008458</v>
+        <v>0.9081795391292021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hvacsystems</t>
+          <t>cleaning</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.2136674666563295</v>
+        <v>0.1685767382345305</v>
       </c>
       <c r="C5">
-        <v>0.2695098932810415</v>
+        <v>0.2971499284764423</v>
       </c>
       <c r="D5">
-        <v>312.3120812945961</v>
+        <v>467.2715508726696</v>
       </c>
       <c r="E5">
-        <v>-0.7928000863163853</v>
+        <v>0.5673120606115006</v>
       </c>
       <c r="F5">
-        <v>0.4284961397644544</v>
+        <v>0.5707746249209694</v>
       </c>
       <c r="G5">
-        <v>-0.8195911730868206</v>
+        <v>-0.4454922353861258</v>
       </c>
       <c r="H5">
-        <v>0.3568066676641212</v>
+        <v>0.7446951764548251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>hvacsystems</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.2462093840699513</v>
+        <v>0.0903485693784289</v>
       </c>
       <c r="C6">
-        <v>0.1104584715247734</v>
+        <v>0.2908151056863888</v>
       </c>
       <c r="D6">
-        <v>313.1883372149399</v>
+        <v>465.0243963585793</v>
       </c>
       <c r="E6">
-        <v>2.228976923827267</v>
+        <v>0.3106735778569206</v>
       </c>
       <c r="F6">
-        <v>0.02652465040969138</v>
+        <v>0.7561879859105121</v>
       </c>
       <c r="G6">
-        <v>0.04017570332005332</v>
+        <v>-0.5019070263952741</v>
       </c>
       <c r="H6">
-        <v>0.4631421730311379</v>
+        <v>0.60660512030019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.007159753002922884</v>
+        <v>-0.2887820507371485</v>
       </c>
       <c r="C7">
-        <v>0.106308050796873</v>
+        <v>0.2842042256899928</v>
       </c>
       <c r="D7">
-        <v>307.5414356965836</v>
+        <v>427.2975797509885</v>
       </c>
       <c r="E7">
-        <v>0.06734911372425885</v>
+        <v>-1.016107519288433</v>
       </c>
       <c r="F7">
-        <v>0.9463475419130094</v>
+        <v>0.3101531763860472</v>
       </c>
       <c r="G7">
-        <v>-0.2047491472946226</v>
+        <v>-0.9035258110429774</v>
       </c>
       <c r="H7">
-        <v>0.2139620814344607</v>
+        <v>0.2692751767797035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.1858902960840413</v>
+        <v>0.2074459222929859</v>
       </c>
       <c r="C8">
-        <v>0.1834263111108026</v>
+        <v>0.15937510615295</v>
       </c>
       <c r="D8">
-        <v>314.3427498502933</v>
+        <v>94.65190079168656</v>
       </c>
       <c r="E8">
-        <v>-1.013433105416105</v>
+        <v>1.301620606256432</v>
       </c>
       <c r="F8">
-        <v>0.3116327439666517</v>
+        <v>0.1962052231878329</v>
       </c>
       <c r="G8">
-        <v>-0.5237406124516112</v>
+        <v>-0.1135045556088272</v>
       </c>
       <c r="H8">
-        <v>0.1503138839206129</v>
+        <v>0.5685040137698277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B9">
-        <v>-0.2800927873185976</v>
+        <v>0.1245507719224541</v>
       </c>
       <c r="C9">
-        <v>0.1589282842383132</v>
+        <v>0.1219237389055874</v>
       </c>
       <c r="D9">
-        <v>316.0345996804233</v>
+        <v>472.1451512403664</v>
       </c>
       <c r="E9">
-        <v>-1.762384767827721</v>
+        <v>1.021546526053478</v>
       </c>
       <c r="F9">
-        <v>0.07897093122295244</v>
+        <v>0.3075187089622421</v>
       </c>
       <c r="G9">
-        <v>-0.5963940762842904</v>
+        <v>-0.1396803242247108</v>
       </c>
       <c r="H9">
-        <v>0.02602833631159615</v>
+        <v>0.3728719903213292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.03246148166278761</v>
+        <v>0.04066807066585065</v>
       </c>
       <c r="C10">
-        <v>0.1189774813780684</v>
+        <v>0.1361166589152517</v>
       </c>
       <c r="D10">
-        <v>315.8375763099982</v>
+        <v>463.5248085818951</v>
       </c>
       <c r="E10">
-        <v>0.2728371897505252</v>
+        <v>0.2987736474722849</v>
       </c>
       <c r="F10">
-        <v>0.785156671962661</v>
+        <v>0.7652466571719796</v>
       </c>
       <c r="G10">
-        <v>-0.183878938744969</v>
+        <v>-0.2216066514799994</v>
       </c>
       <c r="H10">
-        <v>0.2639981001397796</v>
+        <v>0.3182595107505539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.07504730407697463</v>
+        <v>0.08361792927718824</v>
       </c>
       <c r="C11">
-        <v>0.1294457265193616</v>
+        <v>0.1103317614823335</v>
       </c>
       <c r="D11">
-        <v>295.8924953165144</v>
+        <v>475.5517248003646</v>
       </c>
       <c r="E11">
-        <v>-0.579758838664709</v>
+        <v>0.7578772255038931</v>
       </c>
       <c r="F11">
-        <v>0.5625184283213394</v>
+        <v>0.4488998743092966</v>
       </c>
       <c r="G11">
-        <v>-0.3265702449394027</v>
+        <v>-0.1579092584318668</v>
       </c>
       <c r="H11">
-        <v>0.205438972520762</v>
+        <v>0.2768035005895765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.2968868155671543</v>
+        <v>-0.2585884742755326</v>
       </c>
       <c r="C12">
-        <v>0.2403261880129371</v>
+        <v>0.414246451597256</v>
       </c>
       <c r="D12">
-        <v>312.0120573537195</v>
+        <v>432.8370475602335</v>
       </c>
       <c r="E12">
-        <v>1.235349414151955</v>
+        <v>-0.6242382361477432</v>
       </c>
       <c r="F12">
-        <v>0.2176298578119353</v>
+        <v>0.5328000110757662</v>
       </c>
       <c r="G12">
-        <v>-0.1662213131087867</v>
+        <v>-1.137363297133693</v>
       </c>
       <c r="H12">
-        <v>0.8018929081282742</v>
+        <v>0.6027287553127065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.2650399423239083</v>
+        <v>0.01417484135439114</v>
       </c>
       <c r="C13">
-        <v>0.2309032696260973</v>
+        <v>0.08527347412659581</v>
       </c>
       <c r="D13">
-        <v>305.6084380600794</v>
+        <v>473.9187646083581</v>
       </c>
       <c r="E13">
-        <v>1.147839711204994</v>
+        <v>0.1662280269400936</v>
       </c>
       <c r="F13">
-        <v>0.2519324641920949</v>
+        <v>0.8680483965236037</v>
       </c>
       <c r="G13">
-        <v>-0.20777341622159</v>
+        <v>-0.1424292937680371</v>
       </c>
       <c r="H13">
-        <v>0.7298476124158179</v>
+        <v>0.1859132603103086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="B14">
-        <v>-0.0852107857068012</v>
+        <v>-0.07541466594357286</v>
       </c>
       <c r="C14">
-        <v>0.1659450681926101</v>
+        <v>0.3474477070928391</v>
       </c>
       <c r="D14">
-        <v>50.26829525322558</v>
+        <v>430.269864259242</v>
       </c>
       <c r="E14">
-        <v>-0.5134879067806839</v>
+        <v>-0.2170532842901215</v>
       </c>
       <c r="F14">
-        <v>0.6098597333152853</v>
+        <v>0.8282697013096583</v>
       </c>
       <c r="G14">
-        <v>-0.448634598209375</v>
+        <v>-0.7413195108654655</v>
       </c>
       <c r="H14">
-        <v>0.2198282882507257</v>
+        <v>0.5988500194795691</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>percentfreereducedlunch</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>-0.2029569536861892</v>
+      </c>
+      <c r="C15">
+        <v>0.144859898688853</v>
+      </c>
+      <c r="D15">
+        <v>473.4685655130139</v>
+      </c>
+      <c r="E15">
+        <v>-1.401056852332362</v>
+      </c>
+      <c r="F15">
+        <v>0.1618521589325067</v>
+      </c>
+      <c r="G15">
+        <v>-0.4823735129714316</v>
+      </c>
+      <c r="H15">
+        <v>0.0871964904713573</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,25 +1806,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.019936386210659</v>
+        <v>1.039603226773927</v>
       </c>
       <c r="C2">
-        <v>0.3501290814180876</v>
+        <v>0.364326797904568</v>
       </c>
       <c r="D2">
-        <v>3.59215465341249</v>
+        <v>2.980946191485549</v>
       </c>
       <c r="E2">
-        <v>2.913029623474086</v>
+        <v>2.853490966772752</v>
       </c>
       <c r="F2">
-        <v>0.04964264048460895</v>
+        <v>0.0654128023168941</v>
       </c>
       <c r="G2">
-        <v>0.3391560086123647</v>
+        <v>0.2972267232291832</v>
       </c>
       <c r="H2">
-        <v>1.673801670501873</v>
+        <v>1.755835875743055</v>
       </c>
     </row>
     <row r="3">
@@ -1806,25 +1834,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1467560660755715</v>
+        <v>-0.2082688310299523</v>
       </c>
       <c r="C3">
-        <v>0.2817865800500486</v>
+        <v>0.3124445262936224</v>
       </c>
       <c r="D3">
-        <v>313.8735359285676</v>
+        <v>465.3654387827862</v>
       </c>
       <c r="E3">
-        <v>0.5208057319461625</v>
+        <v>-0.6665785875673492</v>
       </c>
       <c r="F3">
-        <v>0.6028693164558701</v>
+        <v>0.5053716797456613</v>
       </c>
       <c r="G3">
-        <v>-0.4144498456959167</v>
+        <v>-0.822478453002536</v>
       </c>
       <c r="H3">
-        <v>0.7682511800530907</v>
+        <v>0.4014535237749938</v>
       </c>
     </row>
     <row r="4">
@@ -1834,25 +1862,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.2327443359414642</v>
+        <v>0.2688258712932695</v>
       </c>
       <c r="C4">
-        <v>0.2682367251758448</v>
+        <v>0.3357734580842558</v>
       </c>
       <c r="D4">
-        <v>309.5217915272995</v>
+        <v>469.5771277413766</v>
       </c>
       <c r="E4">
-        <v>-0.867682588164938</v>
+        <v>0.8006167992760549</v>
       </c>
       <c r="F4">
-        <v>0.386240323001902</v>
+        <v>0.4237583959285612</v>
       </c>
       <c r="G4">
-        <v>-0.7857515133255143</v>
+        <v>-0.4862377591151322</v>
       </c>
       <c r="H4">
-        <v>0.2945126104342218</v>
+        <v>0.9897381176986726</v>
       </c>
     </row>
     <row r="5">
@@ -1862,277 +1890,305 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.5333974978298059</v>
+        <v>0.4704149448267629</v>
       </c>
       <c r="C5">
-        <v>0.2540682459447652</v>
+        <v>0.3078923674661176</v>
       </c>
       <c r="D5">
-        <v>307.7569062106648</v>
+        <v>465.9047842913785</v>
       </c>
       <c r="E5">
-        <v>-2.09942606501785</v>
+        <v>1.527855168019163</v>
       </c>
       <c r="F5">
-        <v>0.03659352146781997</v>
+        <v>0.1272270924934545</v>
       </c>
       <c r="G5">
-        <v>-1.074892011609657</v>
+        <v>-0.1420484839528182</v>
       </c>
       <c r="H5">
-        <v>-0.05033904930131989</v>
+        <v>1.026921488026266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.2417221461176046</v>
+        <v>0.7231238052683475</v>
       </c>
       <c r="C6">
-        <v>0.1099544191761751</v>
+        <v>0.3241464881638624</v>
       </c>
       <c r="D6">
-        <v>313.6031573479346</v>
+        <v>474.3503969608223</v>
       </c>
       <c r="E6">
-        <v>2.198385002882912</v>
+        <v>2.230854973516771</v>
       </c>
       <c r="F6">
-        <v>0.02865195558438659</v>
+        <v>0.02615750726217278</v>
       </c>
       <c r="G6">
-        <v>0.03014704123356736</v>
+        <v>0.09665822484714992</v>
       </c>
       <c r="H6">
-        <v>0.4617569371249184</v>
+        <v>1.409746102272176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.007315042302660738</v>
+        <v>-0.2919988275808381</v>
       </c>
       <c r="C7">
-        <v>0.1057367390988412</v>
+        <v>0.2838444982461579</v>
       </c>
       <c r="D7">
-        <v>308.2798371672647</v>
+        <v>426.2960225798091</v>
       </c>
       <c r="E7">
-        <v>0.06918165213911827</v>
+        <v>-1.028728157089762</v>
       </c>
       <c r="F7">
-        <v>0.9448898796854626</v>
+        <v>0.3041907612990659</v>
       </c>
       <c r="G7">
-        <v>-0.2178068482459248</v>
+        <v>-0.8679219959603696</v>
       </c>
       <c r="H7">
-        <v>0.2239814185215629</v>
+        <v>0.2786752101672786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.1935163326560597</v>
+        <v>0.1889222642329682</v>
       </c>
       <c r="C8">
-        <v>0.1838210677680213</v>
+        <v>0.1596968058344251</v>
       </c>
       <c r="D8">
-        <v>314.4696479895696</v>
+        <v>96.90004179575497</v>
       </c>
       <c r="E8">
-        <v>-1.052742947289772</v>
+        <v>1.183005904506595</v>
       </c>
       <c r="F8">
-        <v>0.2932670504991191</v>
+        <v>0.2397012045795135</v>
       </c>
       <c r="G8">
-        <v>-0.5509657294632874</v>
+        <v>-0.1578949565218781</v>
       </c>
       <c r="H8">
-        <v>0.1872038132656926</v>
+        <v>0.5118138868700824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="B9">
-        <v>-0.2812672173871388</v>
+        <v>0.129072122416019</v>
       </c>
       <c r="C9">
-        <v>0.1588094021186323</v>
+        <v>0.1218503688015328</v>
       </c>
       <c r="D9">
-        <v>315.9269887853191</v>
+        <v>472.1633238497458</v>
       </c>
       <c r="E9">
-        <v>-1.771099277718011</v>
+        <v>1.059267392339607</v>
       </c>
       <c r="F9">
-        <v>0.07750829082893188</v>
+        <v>0.2900195984021023</v>
       </c>
       <c r="G9">
-        <v>-0.5752029006489744</v>
+        <v>-0.1260830308397231</v>
       </c>
       <c r="H9">
-        <v>0.04807453608565254</v>
+        <v>0.3757633258796203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.02739483338161914</v>
+        <v>0.04079592477354459</v>
       </c>
       <c r="C10">
-        <v>0.1187599153493316</v>
+        <v>0.1359172817136949</v>
       </c>
       <c r="D10">
-        <v>315.897999714151</v>
+        <v>464.0109742842964</v>
       </c>
       <c r="E10">
-        <v>0.2306740729903468</v>
+        <v>0.3001525947191897</v>
       </c>
       <c r="F10">
-        <v>0.817717335487248</v>
+        <v>0.7641951840441847</v>
       </c>
       <c r="G10">
-        <v>-0.2023817871351108</v>
+        <v>-0.2550889115145755</v>
       </c>
       <c r="H10">
-        <v>0.2668169390559167</v>
+        <v>0.3092769204199473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.07457669249072947</v>
+        <v>0.06383452973972804</v>
       </c>
       <c r="C11">
-        <v>0.1289449194915269</v>
+        <v>0.1115623593541319</v>
       </c>
       <c r="D11">
-        <v>294.9717668854305</v>
+        <v>474.9739132695167</v>
       </c>
       <c r="E11">
-        <v>-0.5783608441868854</v>
+        <v>0.5721869823234766</v>
       </c>
       <c r="F11">
-        <v>0.5634618251164623</v>
+        <v>0.5674660154911078</v>
       </c>
       <c r="G11">
-        <v>-0.3495560366826748</v>
+        <v>-0.1579654262748538</v>
       </c>
       <c r="H11">
-        <v>0.1639111289250713</v>
+        <v>0.2833252703875562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.2843159285265787</v>
+        <v>-0.2698855884269168</v>
       </c>
       <c r="C12">
-        <v>0.2415550545014362</v>
+        <v>0.4141607605662361</v>
       </c>
       <c r="D12">
-        <v>312.8326751035534</v>
+        <v>432.4264622641711</v>
       </c>
       <c r="E12">
-        <v>1.177023304742681</v>
+        <v>-0.6516445161485896</v>
       </c>
       <c r="F12">
-        <v>0.2400809627951311</v>
+        <v>0.5149766961467528</v>
       </c>
       <c r="G12">
-        <v>-0.1840134396929747</v>
+        <v>-1.066818650608198</v>
       </c>
       <c r="H12">
-        <v>0.7395959015295039</v>
+        <v>0.5791431336193567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.2370338004343112</v>
+        <v>0.01104083134495893</v>
       </c>
       <c r="C13">
-        <v>0.2313878247894691</v>
+        <v>0.08613142280915129</v>
       </c>
       <c r="D13">
-        <v>305.1396280436675</v>
+        <v>474.090240744629</v>
       </c>
       <c r="E13">
-        <v>1.024400487147408</v>
+        <v>0.1281858697426029</v>
       </c>
       <c r="F13">
-        <v>0.3064575649738183</v>
+        <v>0.8980562388371092</v>
       </c>
       <c r="G13">
-        <v>-0.1840567854435975</v>
+        <v>-0.155488244011836</v>
       </c>
       <c r="H13">
-        <v>0.7080023102562109</v>
+        <v>0.16927985015164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="B14">
-        <v>-0.08589858777288259</v>
+        <v>-0.07637316130314399</v>
       </c>
       <c r="C14">
-        <v>0.1652708127357512</v>
+        <v>0.3473420391896413</v>
       </c>
       <c r="D14">
-        <v>51.10461248121192</v>
+        <v>430.0174213737853</v>
       </c>
       <c r="E14">
-        <v>-0.5197444506443157</v>
+        <v>-0.2198788303348616</v>
       </c>
       <c r="F14">
-        <v>0.6054857849294826</v>
+        <v>0.8260698642985296</v>
       </c>
       <c r="G14">
-        <v>-0.4145941556385805</v>
+        <v>-0.7318450801379263</v>
       </c>
       <c r="H14">
-        <v>0.301868495589776</v>
+        <v>0.639803086432351</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>percentfreereducedlunch</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>-0.202532149708557</v>
+      </c>
+      <c r="C15">
+        <v>0.1447950956476984</v>
+      </c>
+      <c r="D15">
+        <v>473.527684228212</v>
+      </c>
+      <c r="E15">
+        <v>-1.398750066793277</v>
+      </c>
+      <c r="F15">
+        <v>0.1625425546842996</v>
+      </c>
+      <c r="G15">
+        <v>-0.4829984286704848</v>
+      </c>
+      <c r="H15">
+        <v>0.08222047610226974</v>
       </c>
     </row>
   </sheetData>
